--- a/data/xlsx/01192019.xlsx
+++ b/data/xlsx/01192019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A36E094-1226-8E40-B039-4643A45DD25D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F877B6-1AA0-574C-B077-89EF1815EA9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>Category</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>DWIGHT/WARRING</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -798,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:G32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -810,11 +813,10 @@
     <col min="2" max="2" width="8"/>
     <col min="3" max="3" width="12"/>
     <col min="4" max="5" width="19"/>
-    <col min="8" max="10" width="21"/>
-    <col min="11" max="11" width="13"/>
+    <col min="8" max="8" width="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -839,9 +841,8 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>43484</v>
       </c>
@@ -863,9 +864,11 @@
       <c r="G2">
         <v>-122.261161</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>43484</v>
       </c>
@@ -887,9 +890,11 @@
       <c r="G3">
         <v>-122.26586399999999</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>43484</v>
       </c>
@@ -911,9 +916,11 @@
       <c r="G4">
         <v>-122.266153</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>43484</v>
       </c>
@@ -935,9 +942,11 @@
       <c r="G5">
         <v>-122.249005</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="H5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>43484</v>
       </c>
@@ -959,9 +968,11 @@
       <c r="G6">
         <v>-122.260869</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="H6" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>43484</v>
       </c>
@@ -983,9 +994,11 @@
       <c r="G7">
         <v>-122.248801</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="H7" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>43484</v>
       </c>
@@ -1007,9 +1020,11 @@
       <c r="G8">
         <v>-122.265877</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>43484</v>
       </c>
@@ -1031,9 +1046,11 @@
       <c r="G9">
         <v>-122.25967</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="H9" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>43484</v>
       </c>
@@ -1055,9 +1072,11 @@
       <c r="G10">
         <v>-122.260437</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="H10" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>43484</v>
       </c>
@@ -1079,9 +1098,11 @@
       <c r="G11">
         <v>-122.27172400000001</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>43484</v>
       </c>
@@ -1103,9 +1124,11 @@
       <c r="G12">
         <v>-122.2578</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>43484</v>
       </c>
@@ -1130,10 +1153,8 @@
       <c r="H13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>43484</v>
       </c>
@@ -1155,9 +1176,11 @@
       <c r="G14">
         <v>-122.257058</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="H14" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>43484</v>
       </c>
@@ -1179,9 +1202,11 @@
       <c r="G15">
         <v>-122.268446</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="H15" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>43484</v>
       </c>
@@ -1203,9 +1228,11 @@
       <c r="G16">
         <v>-122.265877</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="H16" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>43484</v>
       </c>
@@ -1230,10 +1257,8 @@
       <c r="H17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>43484</v>
       </c>
@@ -1255,9 +1280,11 @@
       <c r="G18">
         <v>-122.26053</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="H18" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>43484</v>
       </c>
@@ -1279,9 +1306,11 @@
       <c r="G19">
         <v>-122.235922</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="H19" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>43484</v>
       </c>
@@ -1303,9 +1332,11 @@
       <c r="G20">
         <v>-122.25967</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="H20" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>43484</v>
       </c>
@@ -1330,10 +1361,8 @@
       <c r="H21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>43484</v>
       </c>
@@ -1358,10 +1387,8 @@
       <c r="H22" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>43484</v>
       </c>
@@ -1383,9 +1410,11 @@
       <c r="G23">
         <v>-122.259216</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="H23" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>43484</v>
       </c>
@@ -1407,9 +1436,11 @@
       <c r="G24">
         <v>-122.262235</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="H24" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>43484</v>
       </c>
@@ -1431,9 +1462,11 @@
       <c r="G25">
         <v>-122.257988</v>
       </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="H25" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>43484</v>
       </c>
@@ -1455,9 +1488,11 @@
       <c r="G26">
         <v>-122.26352199999999</v>
       </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="H26" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>43484</v>
       </c>
@@ -1479,9 +1514,11 @@
       <c r="G27">
         <v>-122.252308</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="H27" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>43484</v>
       </c>
@@ -1506,10 +1543,8 @@
       <c r="H28" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>43484</v>
       </c>
@@ -1531,9 +1566,11 @@
       <c r="G29">
         <v>-122.26058500000001</v>
       </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="H29" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>43484</v>
       </c>
@@ -1558,9 +1595,8 @@
       <c r="H30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>43484</v>
       </c>
@@ -1582,9 +1618,11 @@
       <c r="G31">
         <v>-122.25046</v>
       </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="H31" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>43484</v>
       </c>
@@ -1609,7 +1647,6 @@
       <c r="H32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/01192019.xlsx
+++ b/data/xlsx/01192019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F877B6-1AA0-574C-B077-89EF1815EA9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0AB023-FD77-DF41-8D14-7B642A57411E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,6 +416,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -462,7 +465,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
